--- a/src/test/resources/testData/DataBase.xlsx
+++ b/src/test/resources/testData/DataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace0101\learnVernProject\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace0101\learnVernProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B714A1-DC00-4DE8-84A0-B5899D8D6F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0114E4-A538-4B57-93CD-31EB1BB5E429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33983,7 +33983,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -34076,15 +34076,15 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{772C8294-9947-4DE8-98CE-AEEF07E03D23}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{A77C553D-1CF6-4113-BD48-17AD7C81CF00}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{6DD8ACE0-898C-40DF-80C4-69C51D967416}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{B318A12F-119A-4693-AF84-A79E680C81DA}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{DA181292-F5BC-47DD-AD2A-03B47A28FB9E}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{E9E06716-1D66-478B-93ED-92FEE4F0C751}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{657F73BE-034E-4202-934E-319B044B8D38}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{E7699A64-6BF7-4779-B8F8-60DEDEE0D63E}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{AA5087FF-F675-4418-9FA3-3BB35D18D203}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{9F7AD04C-8375-4A0D-AD79-DBA6265114E6}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{278AC90C-7035-44E1-BAEF-EF3258477A46}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{DBF5EB9C-2C61-451E-9BD5-6E792D007D70}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{DA181292-F5BC-47DD-AD2A-03B47A28FB9E}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{E9E06716-1D66-478B-93ED-92FEE4F0C751}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{657F73BE-034E-4202-934E-319B044B8D38}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{E7699A64-6BF7-4779-B8F8-60DEDEE0D63E}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{AA5087FF-F675-4418-9FA3-3BB35D18D203}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{9F7AD04C-8375-4A0D-AD79-DBA6265114E6}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{278AC90C-7035-44E1-BAEF-EF3258477A46}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{DBF5EB9C-2C61-451E-9BD5-6E792D007D70}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{B318A12F-119A-4693-AF84-A79E680C81DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
